--- a/data/trans_camb/P5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 16,26</t>
+          <t>-6,46; 17,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 8,89</t>
+          <t>-12,36; 9,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,2; -9,29</t>
+          <t>-30,73; -10,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 19,3</t>
+          <t>-2,91; 19,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 13,62</t>
+          <t>-8,23; 13,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 5,26</t>
+          <t>-19,05; 5,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 14,57</t>
+          <t>-1,96; 13,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 8,55</t>
+          <t>-7,36; 8,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,12; -5,71</t>
+          <t>-22,06; -6,13</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 56,41</t>
+          <t>-15,97; 62,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 30,58</t>
+          <t>-30,57; 34,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,41; -31,76</t>
+          <t>-77,83; -29,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 85,07</t>
+          <t>-7,9; 83,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 62,18</t>
+          <t>-23,53; 61,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,94; 25,7</t>
+          <t>-56,84; 22,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 53,12</t>
+          <t>-5,48; 48,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 31,21</t>
+          <t>-19,93; 32,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-60,66; -18,55</t>
+          <t>-62,25; -21,76</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 24,39</t>
+          <t>9,4; 24,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 20,84</t>
+          <t>6,65; 21,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 6,75</t>
+          <t>-6,33; 7,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 15,0</t>
+          <t>-1,28; 14,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 15,2</t>
+          <t>-0,09; 15,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 2,97</t>
+          <t>-11,98; 3,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,49</t>
+          <t>6,95; 17,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 15,96</t>
+          <t>5,65; 15,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 3,17</t>
+          <t>-7,83; 2,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,76; 131,5</t>
+          <t>37,2; 134,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,75; 114,45</t>
+          <t>25,32; 118,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 37,14</t>
+          <t>-25,43; 40,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 63,62</t>
+          <t>-4,98; 62,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 63,39</t>
+          <t>-0,43; 66,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 14,07</t>
+          <t>-38,57; 13,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,77; 78,97</t>
+          <t>24,85; 78,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,09; 73,55</t>
+          <t>19,94; 70,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,97; 14,84</t>
+          <t>-28,39; 12,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 12,74</t>
+          <t>-8,81; 12,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 17,88</t>
+          <t>-2,38; 18,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -3,95</t>
+          <t>-21,92; -3,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 19,26</t>
+          <t>-3,81; 19,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 17,45</t>
+          <t>-3,76; 17,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,23; -2,49</t>
+          <t>-21,28; -1,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 13,71</t>
+          <t>-2,41; 13,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 15,35</t>
+          <t>0,05; 14,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,21; -5,68</t>
+          <t>-18,51; -5,78</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 50,74</t>
+          <t>-24,5; 50,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 71,88</t>
+          <t>-6,92; 69,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,0; -14,96</t>
+          <t>-59,03; -12,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 82,37</t>
+          <t>-11,52; 83,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 74,19</t>
+          <t>-9,68; 74,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,5; -9,79</t>
+          <t>-59,43; -5,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 52,68</t>
+          <t>-7,51; 50,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 58,09</t>
+          <t>0,22; 55,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -21,4</t>
+          <t>-53,46; -21,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 19,0</t>
+          <t>0,22; 18,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 20,46</t>
+          <t>3,11; 20,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -8,07</t>
+          <t>-21,61; -7,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,99; 26,71</t>
+          <t>6,78; 26,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 16,45</t>
+          <t>-1,56; 17,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 0,52</t>
+          <t>-18,08; -0,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 19,55</t>
+          <t>6,48; 19,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 16,16</t>
+          <t>2,79; 16,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -7,4</t>
+          <t>-18,19; -6,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 77,71</t>
+          <t>0,55; 74,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 84,14</t>
+          <t>9,57; 83,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,85; -32,72</t>
+          <t>-65,27; -31,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,27; 115,2</t>
+          <t>20,68; 109,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 72,22</t>
+          <t>-5,13; 71,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 3,47</t>
+          <t>-58,29; -1,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,86; 78,99</t>
+          <t>20,89; 77,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,84; 64,33</t>
+          <t>8,59; 62,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,15; -26,08</t>
+          <t>-58,77; -26,6</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,68; 14,67</t>
+          <t>5,68; 14,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,69; 13,95</t>
+          <t>5,04; 14,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -6,73</t>
+          <t>-14,41; -6,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,96; 14,74</t>
+          <t>4,64; 14,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,42; 11,44</t>
+          <t>2,21; 11,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -4,18</t>
+          <t>-13,47; -3,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,48</t>
+          <t>6,82; 13,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,4</t>
+          <t>4,91; 11,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -6,99</t>
+          <t>-12,86; -6,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>18,65; 56,41</t>
+          <t>18,59; 58,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>15,6; 55,09</t>
+          <t>17,03; 55,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,74; -25,59</t>
+          <t>-48,06; -25,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,82; 57,57</t>
+          <t>15,5; 57,24</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,43; 43,91</t>
+          <t>6,78; 46,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -15,17</t>
+          <t>-44,35; -15,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>23,26; 50,99</t>
+          <t>23,03; 50,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,32; 43,56</t>
+          <t>16,8; 43,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,92; -26,47</t>
+          <t>-43,97; -26,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-7,12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,39</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-1,33</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-20,47</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-21,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,04</t>
+          <t>-14,39</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 17,33</t>
+          <t>-3,81; 18,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 9,75</t>
+          <t>-8,89; 12,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -10,05</t>
+          <t>-18,7; 4,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 19,18</t>
+          <t>-5,69; 16,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 13,88</t>
+          <t>-13,89; 9,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 5,3</t>
+          <t>-30,83; -9,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 13,86</t>
+          <t>-1,59; 14,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 8,9</t>
+          <t>-7,84; 7,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,06; -6,13</t>
+          <t>-22,23; -6,24</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>28,64%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-24,35%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>15,53%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-3,84%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-59,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>28,64%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,63%</t>
+          <t>-60,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-43,68%</t>
+          <t>-44,77%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 62,23</t>
+          <t>-11,17; 82,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 34,45</t>
+          <t>-26,28; 55,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,83; -29,97</t>
+          <t>-54,86; 22,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 83,51</t>
+          <t>-14,19; 54,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 61,32</t>
+          <t>-34,51; 32,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 22,76</t>
+          <t>-76,75; -34,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 48,74</t>
+          <t>-4,32; 50,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 32,28</t>
+          <t>-21,93; 27,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,25; -21,76</t>
+          <t>-62,69; -21,37</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,74</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-4,67</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>17,04</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>13,68</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,74</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-2,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,4; 24,31</t>
+          <t>-1,97; 15,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 21,17</t>
+          <t>-0,9; 14,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 7,46</t>
+          <t>-12,2; 3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 14,87</t>
+          <t>9,42; 24,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 15,91</t>
+          <t>6,22; 20,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 3,11</t>
+          <t>-6,88; 8,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 17,92</t>
+          <t>6,67; 17,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 15,69</t>
+          <t>5,3; 15,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 2,79</t>
+          <t>-7,61; 2,82</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>24,65%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-17,1%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>77,17%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>61,92%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>24,65%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>27,02%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,14%</t>
+          <t>-9,22%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,2; 134,9</t>
+          <t>-6,68; 64,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,32; 118,47</t>
+          <t>-3,62; 63,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 40,69</t>
+          <t>-39,85; 15,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 62,93</t>
+          <t>36,24; 134,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 66,45</t>
+          <t>24,26; 109,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,57; 13,89</t>
+          <t>-26,56; 42,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,85; 78,9</t>
+          <t>23,68; 80,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,94; 70,15</t>
+          <t>20,14; 71,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 12,69</t>
+          <t>-27,84; 12,57</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,15</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-11,19</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,41</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>8,32</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-12,87</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,15</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,17</t>
+          <t>-12,95</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,1</t>
+          <t>-12,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 12,73</t>
+          <t>-3,56; 18,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 18,05</t>
+          <t>-2,1; 18,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,92; -3,5</t>
+          <t>-19,88; -2,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 19,3</t>
+          <t>-8,95; 13,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 17,15</t>
+          <t>-1,54; 18,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -1,49</t>
+          <t>-21,93; -3,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 13,41</t>
+          <t>-2,12; 12,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 14,73</t>
+          <t>-0,04; 14,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -5,78</t>
+          <t>-19,44; -5,66</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>27,95%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-38,4%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>7,69%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>26,57%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-41,12%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>27,95%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26,92%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-38,34%</t>
+          <t>-41,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-39,92%</t>
+          <t>-40,06%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 50,81</t>
+          <t>-10,85; 79,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 69,48</t>
+          <t>-5,79; 84,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,03; -12,13</t>
+          <t>-58,14; -9,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 83,41</t>
+          <t>-23,58; 53,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 74,81</t>
+          <t>-4,58; 74,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,43; -5,82</t>
+          <t>-59,33; -13,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 50,36</t>
+          <t>-6,19; 47,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 55,23</t>
+          <t>-0,08; 56,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-53,46; -21,3</t>
+          <t>-55,02; -21,21</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>16,62</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7,61</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-5,58</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>9,95</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>11,71</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-14,87</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>16,62</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,93</t>
+          <t>-15,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,97</t>
+          <t>-10,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 18,78</t>
+          <t>5,62; 25,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 20,91</t>
+          <t>-2,26; 17,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,61; -7,58</t>
+          <t>-16,35; 20,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 26,34</t>
+          <t>0,85; 19,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 17,31</t>
+          <t>1,92; 20,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,08; -0,56</t>
+          <t>-22,27; -7,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,48; 19,42</t>
+          <t>6,05; 20,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 16,16</t>
+          <t>2,64; 16,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -6,98</t>
+          <t>-16,7; 2,29</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>59,71%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27,34%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-20,03%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>34,32%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>40,39%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-51,27%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>59,71%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>27,34%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,26%</t>
+          <t>-52,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-45,64%</t>
+          <t>-37,14%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 74,52</t>
+          <t>19,63; 111,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,57; 83,83</t>
+          <t>-6,78; 72,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,27; -31,21</t>
+          <t>-55,66; 98,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,68; 109,61</t>
+          <t>1,45; 76,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 71,61</t>
+          <t>5,6; 83,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,29; -1,19</t>
+          <t>-66,29; -31,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,89; 77,29</t>
+          <t>19,27; 80,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,59; 62,91</t>
+          <t>8,76; 65,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,77; -26,6</t>
+          <t>-55,55; 15,63</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>9,93</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,88</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>10,33</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>9,44</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-10,68</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>9,93</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>-10,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>-8,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,68; 14,89</t>
+          <t>4,77; 15,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,04; 14,04</t>
+          <t>2,59; 11,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -6,65</t>
+          <t>-12,26; 3,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,64; 14,61</t>
+          <t>5,53; 14,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,21; 11,92</t>
+          <t>4,85; 14,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -3,91</t>
+          <t>-15,08; -7,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,33</t>
+          <t>6,89; 13,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,6</t>
+          <t>5,0; 11,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,86; -6,96</t>
+          <t>-12,34; -2,76</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>35,34%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>24,53%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-24,48%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>36,97%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>33,78%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-38,22%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>35,34%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>24,53%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
+          <t>-38,75%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36,19%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>-32,08%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>36,19%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>29,33%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-35,31%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>18,59; 58,37</t>
+          <t>15,67; 59,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17,03; 55,0</t>
+          <t>7,85; 46,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,06; -25,67</t>
+          <t>-41,54; 14,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,5; 57,24</t>
+          <t>17,91; 57,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,78; 46,11</t>
+          <t>15,63; 55,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,35; -15,03</t>
+          <t>-49,57; -26,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>23,03; 50,38</t>
+          <t>22,88; 49,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,8; 43,95</t>
+          <t>16,61; 43,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,97; -26,04</t>
+          <t>-41,93; -8,34</t>
         </is>
       </c>
     </row>
